--- a/ClosedXML_Tests/Resource/Examples/Ranges/DefiningRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DefiningRanges.xlsx
@@ -35,14 +35,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DefiningRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DefiningRanges.xlsx
@@ -88,7 +88,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -371,7 +371,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DefiningRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DefiningRanges.xlsx
@@ -385,23 +385,22 @@
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
+    <x:row r="2" spans="1:1">
       <x:c r="A2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:2">
+    <x:row r="3" spans="1:1">
       <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2">
+    <x:row r="4" spans="1:1">
       <x:c r="A4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
